--- a/doc/Memorymap.xlsx
+++ b/doc/Memorymap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cibic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB Learning\Bootloader\git\bootmanager_stm32f1x\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>08000000H</t>
   </si>
@@ -137,6 +137,39 @@
 4. Application / BootUpdater is placed at Region 2, At any given point in time any one image can be present in this region
 5. Region 3 is used to emulate the EEPROM
 </t>
+  </si>
+  <si>
+    <t>RAM Memory</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. SRAM memory starts at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">20000000H, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">size of the RAM of stm32f103c8ty MCU is 20kb, 20480
+2. </t>
+    </r>
+  </si>
+  <si>
+    <t>Size of kB</t>
   </si>
 </sst>
 </file>
@@ -338,17 +371,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -397,29 +451,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,399 +743,476 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:V25"/>
+  <dimension ref="C3:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="J5" sqref="J5:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="15" max="15" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="K3" s="17" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="K3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="Q3" s="6" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="Q3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="J4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="31">
+        <v>7</v>
+      </c>
+      <c r="K5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
     </row>
     <row r="11" spans="3:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="K11" s="18" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="J11" s="31">
+        <v>16</v>
+      </c>
+      <c r="K11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
+      <c r="C15" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
     </row>
     <row r="16" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-    </row>
-    <row r="17" spans="11:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K17" s="8" t="s">
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+    </row>
+    <row r="17" spans="3:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="J17" s="31">
+        <v>104</v>
+      </c>
+      <c r="K17" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10" t="s">
+      <c r="L17" s="16"/>
+      <c r="M17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="11"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-    </row>
-    <row r="18" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="5"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-    </row>
-    <row r="19" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="5"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-    </row>
-    <row r="20" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="5"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-    </row>
-    <row r="21" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="5"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-    </row>
-    <row r="22" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="5"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-    </row>
-    <row r="23" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K23" s="14" t="s">
+      <c r="N17" s="18"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="4"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="4"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="4"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="4"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="4"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="J23" s="31"/>
+      <c r="K23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="16"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-    </row>
-    <row r="24" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K24" s="20" t="s">
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="J24" s="31">
+        <v>1</v>
+      </c>
+      <c r="K24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
       <c r="O24" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-    </row>
-    <row r="25" spans="11:22" x14ac:dyDescent="0.3">
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="J25" s="31"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
       <c r="O25" t="s">
         <v>7</v>
       </c>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="J26" s="32">
+        <f>SUM(J5:J25)</f>
+        <v>128</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="J24:J25"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C11:F12"/>
     <mergeCell ref="C8:F8"/>
@@ -1106,6 +1225,10 @@
     <mergeCell ref="K5:N10"/>
     <mergeCell ref="K11:N16"/>
     <mergeCell ref="K24:N25"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F22"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="J11:J16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/doc/Memorymap.xlsx
+++ b/doc/Memorymap.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>08000000H</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Page 2</t>
-  </si>
-  <si>
-    <t>Page 128</t>
   </si>
   <si>
     <t>…</t>
@@ -171,12 +168,36 @@
   <si>
     <t>Size of kB</t>
   </si>
+  <si>
+    <t>08001C00H</t>
+  </si>
+  <si>
+    <t>08005C00H</t>
+  </si>
+  <si>
+    <t>08001BFFH</t>
+  </si>
+  <si>
+    <t>08005BFFH</t>
+  </si>
+  <si>
+    <t>0801FBFFH</t>
+  </si>
+  <si>
+    <t>0801FFFFH</t>
+  </si>
+  <si>
+    <t>Page 127</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,8 +213,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,8 +274,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -367,17 +437,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,6 +549,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -451,20 +599,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -746,58 +907,62 @@
   <dimension ref="C3:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J10"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" customWidth="1"/>
     <col min="15" max="15" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="K3" s="24" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="K3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="Q3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="Q3" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
     </row>
     <row r="4" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="J4" s="30" t="s">
-        <v>24</v>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
     </row>
     <row r="5" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -810,21 +975,27 @@
       <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="31">
+      <c r="I5" s="39">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <v>7</v>
       </c>
-      <c r="K5" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
+      <c r="K5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
     </row>
     <row r="6" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C6" s="2" t="s">
@@ -837,17 +1008,19 @@
       <c r="F6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="6"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
     </row>
     <row r="7" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
@@ -860,40 +1033,44 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="6"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
     </row>
     <row r="8" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
+      <c r="C8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="6"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
     </row>
     <row r="9" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>6</v>
@@ -902,321 +1079,364 @@
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="6"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
     </row>
     <row r="10" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
+      <c r="I10" s="39">
+        <v>6</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
     </row>
     <row r="11" spans="3:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="J11" s="31">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="I11" s="41">
+        <v>7</v>
+      </c>
+      <c r="J11" s="13">
         <v>16</v>
       </c>
-      <c r="K11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
+      <c r="K11" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
     </row>
     <row r="12" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="7"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
     </row>
     <row r="13" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="7"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
     </row>
     <row r="14" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="J14" s="31"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="7"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
     </row>
     <row r="15" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="7"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="C16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="I16" s="41">
+        <v>22</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+    </row>
+    <row r="17" spans="3:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="I17" s="43">
         <v>23</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-    </row>
-    <row r="17" spans="3:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="J17" s="31">
+      <c r="J17" s="13">
         <v>104</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="26"/>
+      <c r="M17" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="18"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
     </row>
     <row r="18" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="4"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="12"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
     </row>
     <row r="19" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="4"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="12"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
     </row>
     <row r="20" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="4"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="12"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
     </row>
     <row r="21" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="4"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="12"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
     </row>
     <row r="22" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="4"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="J23" s="31"/>
-      <c r="K23" s="21" t="s">
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="12"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+    </row>
+    <row r="23" spans="3:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I23" s="43">
+        <v>126</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+    </row>
+    <row r="24" spans="3:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I24" s="45">
+        <v>127</v>
+      </c>
+      <c r="J24" s="13">
+        <v>1</v>
+      </c>
+      <c r="K24" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="J24" s="31">
-        <v>1</v>
-      </c>
-      <c r="K24" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" t="s">
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="J25" s="31"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.3">
-      <c r="J26" s="32">
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+    </row>
+    <row r="25" spans="3:22" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I25" s="45"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+    </row>
+    <row r="26" spans="3:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="5">
         <f>SUM(J5:J25)</f>
         <v>128</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J17:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C11:F12"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C4:F4"/>
+  <mergeCells count="22">
     <mergeCell ref="Q3:V25"/>
     <mergeCell ref="K17:L22"/>
     <mergeCell ref="M17:N22"/>
@@ -1225,10 +1445,20 @@
     <mergeCell ref="K5:N10"/>
     <mergeCell ref="K11:N16"/>
     <mergeCell ref="K24:N25"/>
+    <mergeCell ref="J17:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C11:F12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F22"/>
     <mergeCell ref="J5:J10"/>
     <mergeCell ref="J11:J16"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I6:I9"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="I18:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
